--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ptprc</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.26694538163215</v>
+        <v>205.313027</v>
       </c>
       <c r="H2">
-        <v>1.26694538163215</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="I2">
-        <v>0.005348233706838133</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="J2">
-        <v>0.005348233706838133</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.91144927474486</v>
+        <v>0.5751623333333333</v>
       </c>
       <c r="N2">
-        <v>4.91144927474486</v>
+        <v>1.725487</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08167574423707133</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.08167574423707133</v>
       </c>
       <c r="Q2">
-        <v>6.222537975758573</v>
+        <v>118.0883196730497</v>
       </c>
       <c r="R2">
-        <v>6.222537975758573</v>
+        <v>1062.794877057447</v>
       </c>
       <c r="S2">
-        <v>0.005348233706838133</v>
+        <v>0.0355487487718274</v>
       </c>
       <c r="T2">
-        <v>0.005348233706838133</v>
+        <v>0.0355487487718274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.113772122052608</v>
+        <v>205.313027</v>
       </c>
       <c r="H3">
-        <v>0.113772122052608</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="I3">
-        <v>0.0004802731884750883</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="J3">
-        <v>0.0004802731884750883</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.91144927474486</v>
+        <v>6.466858999999999</v>
       </c>
       <c r="N3">
-        <v>4.91144927474486</v>
+        <v>19.400577</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9183242557629286</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9183242557629286</v>
       </c>
       <c r="Q3">
-        <v>0.5587860063414652</v>
+        <v>1327.730396472193</v>
       </c>
       <c r="R3">
-        <v>0.5587860063414652</v>
+        <v>11949.57356824974</v>
       </c>
       <c r="S3">
-        <v>0.0004802731884750883</v>
+        <v>0.3996936736130106</v>
       </c>
       <c r="T3">
-        <v>0.0004802731884750883</v>
+        <v>0.3996936736130106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.186821</v>
+      </c>
+      <c r="H4">
+        <v>0.5604629999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="J4">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.5751623333333333</v>
+      </c>
+      <c r="N4">
+        <v>1.725487</v>
+      </c>
+      <c r="O4">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="P4">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="Q4">
+        <v>0.1074524022756667</v>
+      </c>
+      <c r="R4">
+        <v>0.9670716204809999</v>
+      </c>
+      <c r="S4">
+        <v>3.234696254466875E-05</v>
+      </c>
+      <c r="T4">
+        <v>3.234696254466875E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.186821</v>
+      </c>
+      <c r="H5">
+        <v>0.5604629999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="J5">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.466858999999999</v>
+      </c>
+      <c r="N5">
+        <v>19.400577</v>
+      </c>
+      <c r="O5">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="P5">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="Q5">
+        <v>1.208145065239</v>
+      </c>
+      <c r="R5">
+        <v>10.873305587151</v>
+      </c>
+      <c r="S5">
+        <v>0.0003636942715673674</v>
+      </c>
+      <c r="T5">
+        <v>0.0003636942715673674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>266.1765593333333</v>
+      </c>
+      <c r="H6">
+        <v>798.529678</v>
+      </c>
+      <c r="I6">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="J6">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.5751623333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.725487</v>
+      </c>
+      <c r="O6">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="P6">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="Q6">
+        <v>153.0947309447984</v>
+      </c>
+      <c r="R6">
+        <v>1377.852578503186</v>
+      </c>
+      <c r="S6">
+        <v>0.04608691311482185</v>
+      </c>
+      <c r="T6">
+        <v>0.04608691311482185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>266.1765593333333</v>
+      </c>
+      <c r="H7">
+        <v>798.529678</v>
+      </c>
+      <c r="I7">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="J7">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.466858999999999</v>
+      </c>
+      <c r="N7">
+        <v>19.400577</v>
+      </c>
+      <c r="O7">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="P7">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="Q7">
+        <v>1721.3262783138</v>
+      </c>
+      <c r="R7">
+        <v>15491.93650482421</v>
+      </c>
+      <c r="S7">
+        <v>0.5181799147582168</v>
+      </c>
+      <c r="T7">
+        <v>0.5181799147582168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.044676</v>
+      </c>
+      <c r="H8">
+        <v>0.134028</v>
+      </c>
+      <c r="I8">
+        <v>9.470850801135487E-05</v>
+      </c>
+      <c r="J8">
+        <v>9.470850801135488E-05</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.5751623333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.725487</v>
+      </c>
+      <c r="O8">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="P8">
+        <v>0.08167574423707133</v>
+      </c>
+      <c r="Q8">
+        <v>0.025695952404</v>
+      </c>
+      <c r="R8">
+        <v>0.231263571636</v>
+      </c>
+      <c r="S8">
+        <v>7.735387877410041E-06</v>
+      </c>
+      <c r="T8">
+        <v>7.735387877410042E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>235.509712324066</v>
-      </c>
-      <c r="H4">
-        <v>235.509712324066</v>
-      </c>
-      <c r="I4">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="J4">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.91144927474486</v>
-      </c>
-      <c r="N4">
-        <v>4.91144927474486</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1156.694005789404</v>
-      </c>
-      <c r="R4">
-        <v>1156.694005789404</v>
-      </c>
-      <c r="S4">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="T4">
-        <v>0.9941714931046868</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.044676</v>
+      </c>
+      <c r="H9">
+        <v>0.134028</v>
+      </c>
+      <c r="I9">
+        <v>9.470850801135487E-05</v>
+      </c>
+      <c r="J9">
+        <v>9.470850801135488E-05</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.466858999999999</v>
+      </c>
+      <c r="N9">
+        <v>19.400577</v>
+      </c>
+      <c r="O9">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="P9">
+        <v>0.9183242557629286</v>
+      </c>
+      <c r="Q9">
+        <v>0.288913392684</v>
+      </c>
+      <c r="R9">
+        <v>2.600220534156</v>
+      </c>
+      <c r="S9">
+        <v>8.697312013394482E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.697312013394483E-05</v>
       </c>
     </row>
   </sheetData>
